--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l2-3/0_weekly_evolve.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l2-3/0_weekly_evolve.xlsx
@@ -62,7 +62,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Wait, PRTS, hold on! Doctor, you’ll need some special materials before you can promote your Operators!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Wait, PRTS, hold on! Doctor, you'll need some special materials before you can promote your Operators!
 </t>
   </si>
   <si>
